--- a/src/test/resources/TestData/TestData.xlsx
+++ b/src/test/resources/TestData/TestData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D076B89B-B1B8-4FE1-8CD6-B4CD8421531D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -287,20 +288,20 @@
     <t>ABCDEF</t>
   </si>
   <si>
-    <t>newtest1@gmail.com</t>
-  </si>
-  <si>
     <t>newtest2@gmail.com</t>
   </si>
   <si>
     <t>newtest3@gmail.com</t>
+  </si>
+  <si>
+    <t>newtest4@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,6 +464,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -509,7 +518,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -541,9 +550,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -575,6 +602,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -750,14 +795,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
@@ -773,7 +818,7 @@
     <col min="13" max="13" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>44</v>
       </c>
@@ -781,7 +826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>42</v>
       </c>
@@ -789,7 +834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>43</v>
       </c>
@@ -797,7 +842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>38</v>
       </c>
@@ -806,7 +851,7 @@
       <c r="D4" s="14"/>
       <c r="E4" s="15"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
@@ -823,7 +868,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="30">
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -840,7 +885,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -857,7 +902,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="30">
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -874,7 +919,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -891,7 +936,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -908,7 +953,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -930,7 +975,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
@@ -945,7 +990,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>4</v>
       </c>
@@ -956,7 +1001,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -965,7 +1010,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
@@ -974,7 +1019,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
@@ -983,7 +1028,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -1010,14 +1055,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
@@ -1026,7 +1071,7 @@
     <col min="5" max="5" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>48</v>
       </c>
@@ -1034,7 +1079,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>50</v>
       </c>
@@ -1044,8 +1089,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId3"/>
@@ -1053,29 +1098,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId2"/>
@@ -1083,16 +1128,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>53</v>
       </c>
@@ -1103,7 +1148,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>56</v>
       </c>
@@ -1120,19 +1165,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>56</v>
       </c>
@@ -1143,14 +1188,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
@@ -1169,7 +1214,7 @@
     <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>52</v>
       </c>
@@ -1216,9 +1261,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>73</v>
@@ -1263,9 +1308,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>73</v>
@@ -1310,9 +1355,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>73</v>
@@ -1359,9 +1404,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/TestData/TestData.xlsx
+++ b/src/test/resources/TestData/TestData.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D076B89B-B1B8-4FE1-8CD6-B4CD8421531D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF17505D-AA8C-4A10-8F71-061FD84B7C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
     <sheet name="Credentials" sheetId="2" r:id="rId2"/>
-    <sheet name="Email" sheetId="3" r:id="rId3"/>
-    <sheet name="ProductDetails" sheetId="4" r:id="rId4"/>
-    <sheet name="SearchProduct" sheetId="6" r:id="rId5"/>
-    <sheet name="AccountCreationData" sheetId="7" r:id="rId6"/>
+    <sheet name="RegUser" sheetId="8" r:id="rId3"/>
+    <sheet name="Email" sheetId="3" r:id="rId4"/>
+    <sheet name="Contact" sheetId="9" r:id="rId5"/>
+    <sheet name="ProductDetails" sheetId="4" r:id="rId6"/>
+    <sheet name="SearchProduct" sheetId="6" r:id="rId7"/>
+    <sheet name="AccountCreationData" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="115">
   <si>
     <t>TestCases</t>
   </si>
@@ -171,18 +173,6 @@
 Smoke</t>
   </si>
   <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>admin@xyz.com</t>
-  </si>
-  <si>
-    <t>admin@123</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -295,6 +285,93 @@
   </si>
   <si>
     <t>newtest4@gmail.com</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>fname</t>
+  </si>
+  <si>
+    <t>lname</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>zipcode</t>
+  </si>
+  <si>
+    <t>mobile_number</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>golconda</t>
+  </si>
+  <si>
+    <t>Telangana</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>8484884923</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>testone</t>
+  </si>
+  <si>
+    <t>Pass1213</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>BNS</t>
+  </si>
+  <si>
+    <t>hdhdhd@hfifi.com</t>
+  </si>
+  <si>
+    <t>testig oe two thre</t>
+  </si>
+  <si>
+    <t>iam nito jdsd jdojskod sjdsjklad kdpoksfjkdsjfkjdskojf fjopdjkfodkj</t>
+  </si>
+  <si>
+    <t>test1211</t>
+  </si>
+  <si>
+    <t>test12214@gmail.com</t>
+  </si>
+  <si>
+    <t>test123322@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -424,7 +501,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -433,13 +510,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -448,6 +522,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -819,52 +896,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="8">
+      <c r="B1" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -960,7 +1037,7 @@
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -991,12 +1068,12 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="2" t="s">
         <v>36</v>
       </c>
@@ -1056,41 +1133,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="2" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>51</v>
-      </c>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="admin@xyz.com" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{F0AAB08B-B83E-49E7-81E8-070C1E40BF12}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId3"/>
@@ -1098,6 +1177,97 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7333631-CD7F-424A-AF06-7878C7908C1C}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2">
+        <v>500003</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{E5946710-ECC0-4B80-8096-35C62EDB32FA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1110,12 +1280,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>58</v>
+      <c r="A2" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1127,7 +1297,53 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9E337B-96E7-4D23-B824-4B8F45BE40E5}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{C5279714-2F32-4E25-9861-09A23793A01A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1138,25 +1354,25 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="6">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="7">
-        <v>2</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1164,7 +1380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1173,13 +1389,13 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>53</v>
+      <c r="A1" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>56</v>
+      <c r="A2" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1187,11 +1403,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1215,191 +1431,191 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="O1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="C2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="F2" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="G2" s="11" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="I2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="B4" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="K4" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="L4" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="M4" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="12" t="s">
+      <c r="N4" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="O4" s="11" t="s">
         <v>79</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
